--- a/tmp/批量上传患者信息20180509.xlsx
+++ b/tmp/批量上传患者信息20180509.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan/PycharmProjects/yucebio/tmp/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27975" windowHeight="12285"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="27980" windowHeight="12280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -54,10 +67,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>female</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>张云香</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -82,10 +91,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>male</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>双发肺癌、食管癌</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -104,20 +109,26 @@
   <si>
     <t>左肺腺癌</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>男</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="[DBNum2][$-804]General&quot;元&quot;&quot;整&quot;"/>
+    <numFmt numFmtId="164" formatCode="[DBNum2][$-804]General&quot;元&quot;&quot;整&quot;"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -131,7 +142,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -161,16 +172,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -187,10 +198,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -198,45 +209,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <condense val="0"/>
@@ -299,11 +274,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -345,12 +325,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -377,14 +357,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -411,6 +392,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -586,23 +568,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -619,7 +601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1800445</v>
       </c>
@@ -627,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4">
         <v>55</v>
@@ -636,7 +618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1800121</v>
       </c>
@@ -644,7 +626,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4">
         <v>34</v>
@@ -653,136 +635,136 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>180000257</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4">
         <v>85</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1800446</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4">
         <v>66</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1800442</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4">
         <v>53</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1800141</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4">
         <v>67</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1800348</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4">
         <v>32</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1800525</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4">
         <v>70</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B9">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B9">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -790,12 +772,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
